--- a/output_analysis/SPREAD_4_SEC_0.5_ENERGY_1.0_EV-FACTOR_11_EV_25_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_4_SEC_0.5_ENERGY_1.0_EV-FACTOR_11_EV_25_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,264 +434,240 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>64 68 119 124 149</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>76 92 97 107 108 118 129 171</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>107</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2 9 24 25 31 41</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4 8 11 26 33</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>95 97 110 159</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>103 109 130 142 167 225 266</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1 18 29 56 65 78</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12 55 58</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>125</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>71 82 92 123 130 177 187</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>71 81 88 91 94 132 145 189 205</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3 5 17 222 235</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1 17 21</t>
-        </is>
+      <c r="D7" t="n">
+        <v>95</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>99 114 125 206</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="H7" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>84 89 119 120 183</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>98</v>
-      </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8 10 13 32 238</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2 6 44 204</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>87</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
